--- a/biology/Botanique/Piptadenia/Piptadenia.xlsx
+++ b/biology/Botanique/Piptadenia/Piptadenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Piptadenia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Amérique du Nord, d'Amérique centrale et d'Amérique du Sud, qui comprend une trentaine d'espèces acceptées.
 Ce sont  des arbres, arbustes et lianes qui poussent dans les forêts tropicales de plaines et sur les rives des cours d'eau.
-Plusieurs espèces sont exploitées pour leur bois commercialisé comme bois d'œuvre pour la construction, les poteaux, les manches d'outils, la sculpture, ou comme bois de chauffage. On extrait des tanins de leur écorce[2].
+Plusieurs espèces sont exploitées pour leur bois commercialisé comme bois d'œuvre pour la construction, les poteaux, les manches d'outils, la sculpture, ou comme bois de chauffage. On extrait des tanins de leur écorce.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (15 décembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (15 décembre 2018) :
 Piptadenia adiantoides (Spreng.) J.F.Macbr.
 Piptadenia affinis Burkart
 Piptadenia anolidurus Barneby
